--- a/Source Code/Window Q/Data/Somesh Bagadiya_QuatationData.xlsx
+++ b/Source Code/Window Q/Data/Somesh Bagadiya_QuatationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
   <si>
     <t>Sr.No</t>
   </si>
@@ -226,6 +226,9 @@
     <t>09 ft</t>
   </si>
   <si>
+    <t>123 ft</t>
+  </si>
+  <si>
     <t>9.5 ft</t>
   </si>
   <si>
@@ -424,6 +427,12 @@
     <t>₹43,200.00</t>
   </si>
   <si>
+    <t>₹1,81,548.00</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -463,12 +472,21 @@
     <t>₹68,06,103.93</t>
   </si>
   <si>
+    <t>₹69,87,651.93</t>
+  </si>
+  <si>
     <t>₹80,31,202.64</t>
   </si>
   <si>
+    <t>₹82,45,429.28</t>
+  </si>
+  <si>
     <t>Somesh Bagadiya</t>
   </si>
   <si>
+    <t>8421809460</t>
+  </si>
+  <si>
     <t>Orange City, Aurangabad</t>
   </si>
   <si>
@@ -559,10 +577,10 @@
     <t>qwe14</t>
   </si>
   <si>
-    <t>2022-04-07 18:23:45</t>
-  </si>
-  <si>
-    <t>Som/74-2022/659</t>
+    <t>2022-09-17 23:11:42</t>
+  </si>
+  <si>
+    <t>Som/179-2022/100</t>
   </si>
 </sst>
 </file>
@@ -920,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG15"/>
+  <dimension ref="A1:BG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,43 +1134,43 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1179,19 +1197,19 @@
         <v>300</v>
       </c>
       <c r="AF2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG2">
         <v>500</v>
       </c>
       <c r="AO2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ2">
         <v>8421809460</v>
       </c>
       <c r="AR2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS2">
         <v>75000</v>
@@ -1200,25 +1218,25 @@
         <v>2</v>
       </c>
       <c r="AU2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV2" t="s">
         <v>152</v>
       </c>
-      <c r="AV2" t="s">
-        <v>148</v>
-      </c>
       <c r="AW2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AX2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AY2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AZ2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:59">
@@ -1232,43 +1250,43 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1295,22 +1313,22 @@
         <v>240</v>
       </c>
       <c r="AF3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG3">
         <v>500</v>
       </c>
       <c r="AK3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ3">
         <v>8421809460</v>
       </c>
       <c r="AR3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS3">
         <v>135000</v>
@@ -1319,19 +1337,19 @@
         <v>2</v>
       </c>
       <c r="AU3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AV3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AZ3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -1345,25 +1363,25 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1393,22 +1411,22 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG4">
         <v>500</v>
       </c>
       <c r="AK4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ4">
         <v>8421809460</v>
       </c>
       <c r="AR4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS4">
         <v>147500</v>
@@ -1417,19 +1435,19 @@
         <v>3</v>
       </c>
       <c r="AU4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AV4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AZ4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:59">
@@ -1443,25 +1461,25 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" t="s">
         <v>113</v>
-      </c>
-      <c r="P5" t="s">
-        <v>112</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1491,22 +1509,22 @@
         <v>100</v>
       </c>
       <c r="AF5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG5">
         <v>550</v>
       </c>
       <c r="AK5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AO5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ5">
         <v>8421809460</v>
       </c>
       <c r="AR5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS5">
         <v>161250</v>
@@ -1515,19 +1533,19 @@
         <v>4</v>
       </c>
       <c r="AU5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AV5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AZ5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:59">
@@ -1541,43 +1559,43 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" t="s">
         <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" t="s">
-        <v>106</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1598,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD6">
         <v>120</v>
@@ -1607,22 +1625,22 @@
         <v>600</v>
       </c>
       <c r="AF6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG6">
         <v>500</v>
       </c>
       <c r="AK6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AO6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ6">
         <v>8421809460</v>
       </c>
       <c r="AR6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS6">
         <v>221250</v>
@@ -1631,19 +1649,19 @@
         <v>5</v>
       </c>
       <c r="AU6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AV6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AZ6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:59">
@@ -1657,43 +1675,43 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1714,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD7">
         <v>144</v>
@@ -1723,22 +1741,22 @@
         <v>864</v>
       </c>
       <c r="AF7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7">
         <v>500</v>
       </c>
       <c r="AK7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AO7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ7">
         <v>8421809460</v>
       </c>
       <c r="AR7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS7">
         <v>293250</v>
@@ -1747,19 +1765,19 @@
         <v>6</v>
       </c>
       <c r="AU7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AV7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AZ7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -1773,43 +1791,43 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1830,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD8">
         <v>49</v>
@@ -1839,22 +1857,22 @@
         <v>343</v>
       </c>
       <c r="AF8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8">
         <v>550</v>
       </c>
       <c r="AK8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ8">
         <v>8421809460</v>
       </c>
       <c r="AR8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS8">
         <v>320200</v>
@@ -1863,19 +1881,19 @@
         <v>7</v>
       </c>
       <c r="AU8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AV8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AZ8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:59">
@@ -1889,46 +1907,46 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
         <v>114</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>113</v>
-      </c>
       <c r="Z9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD9">
         <v>750</v>
@@ -1937,22 +1955,22 @@
         <v>6000</v>
       </c>
       <c r="AF9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG9">
         <v>350</v>
       </c>
       <c r="AK9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AO9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ9">
         <v>8421809460</v>
       </c>
       <c r="AR9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS9">
         <v>582700</v>
@@ -1961,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="AU9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AV9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AZ9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -1987,22 +2005,22 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2023,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD10">
         <v>64</v>
@@ -2032,22 +2050,22 @@
         <v>576</v>
       </c>
       <c r="AF10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG10">
         <v>600</v>
       </c>
       <c r="AK10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AO10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ10">
         <v>8421809460</v>
       </c>
       <c r="AR10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS10">
         <v>621100</v>
@@ -2056,19 +2074,19 @@
         <v>9</v>
       </c>
       <c r="AU10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AV10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AZ10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:59">
@@ -2082,22 +2100,22 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2118,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD11">
         <v>100</v>
@@ -2127,22 +2145,22 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG11">
         <v>500</v>
       </c>
       <c r="AK11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ11">
         <v>8421809460</v>
       </c>
       <c r="AR11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS11">
         <v>671100</v>
@@ -2151,19 +2169,19 @@
         <v>10</v>
       </c>
       <c r="AU11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AV11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AZ11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -2174,22 +2192,22 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2210,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD12">
         <v>85.5</v>
@@ -2222,22 +2240,22 @@
         <v>940.5</v>
       </c>
       <c r="AF12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG12">
         <v>499.5</v>
       </c>
       <c r="AK12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AO12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ12">
         <v>8421809460</v>
       </c>
       <c r="AR12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS12">
         <v>713807.25</v>
@@ -2246,19 +2264,19 @@
         <v>11</v>
       </c>
       <c r="AU12" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AV12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AZ12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:59">
@@ -2269,16 +2287,16 @@
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2302,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD13">
         <v>171.25</v>
@@ -2311,22 +2329,22 @@
         <v>2055</v>
       </c>
       <c r="AF13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13">
         <v>520.5</v>
       </c>
       <c r="AK13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AO13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ13">
         <v>8421809460</v>
       </c>
       <c r="AR13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS13">
         <v>802942.875</v>
@@ -2335,19 +2353,19 @@
         <v>12</v>
       </c>
       <c r="AU13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AV13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AZ13" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:59">
@@ -2361,43 +2379,43 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s">
-        <v>94</v>
-      </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2424,22 +2442,22 @@
         <v>961.4799999999999</v>
       </c>
       <c r="AF14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG14">
         <v>450.5</v>
       </c>
       <c r="AK14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AO14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ14">
         <v>8421809460</v>
       </c>
       <c r="AR14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS14">
         <v>836261.855</v>
@@ -2448,19 +2466,19 @@
         <v>13</v>
       </c>
       <c r="AU14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AV14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY14" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AZ14" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB14" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:59">
@@ -2471,34 +2489,34 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2519,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD15">
         <v>86.39999999999999</v>
@@ -2528,28 +2546,28 @@
         <v>1209.6</v>
       </c>
       <c r="AF15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG15">
         <v>500</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>136</v>
+      <c r="AJ15">
+        <v>18</v>
       </c>
       <c r="AK15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AO15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ15">
         <v>8421809460</v>
       </c>
       <c r="AR15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AS15">
         <v>879461.855</v>
@@ -2558,19 +2576,99 @@
         <v>14</v>
       </c>
       <c r="AU15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AV15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AZ15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BB15" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1476</v>
+      </c>
+      <c r="AE16">
+        <v>1476</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS16">
+        <v>1061009.855</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Source Code/Window Q/Data/Somesh Bagadiya_QuatationData.xlsx
+++ b/Source Code/Window Q/Data/Somesh Bagadiya_QuatationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="186">
   <si>
     <t>Sr.No</t>
   </si>
@@ -430,9 +430,6 @@
     <t>₹1,81,548.00</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -484,9 +481,6 @@
     <t>Somesh Bagadiya</t>
   </si>
   <si>
-    <t>8421809460</t>
-  </si>
-  <si>
     <t>Orange City, Aurangabad</t>
   </si>
   <si>
@@ -575,9 +569,6 @@
   </si>
   <si>
     <t>qwe14</t>
-  </si>
-  <si>
-    <t>2022-09-17 23:11:42</t>
   </si>
   <si>
     <t>Som/179-2022/100</t>
@@ -587,6 +578,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -639,11 +633,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,13 +1198,13 @@
         <v>500</v>
       </c>
       <c r="AO2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ2">
         <v>8421809460</v>
       </c>
       <c r="AR2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS2">
         <v>75000</v>
@@ -1218,25 +1213,25 @@
         <v>2</v>
       </c>
       <c r="AU2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AV2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AX2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AY2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:59">
@@ -1322,13 +1317,13 @@
         <v>124</v>
       </c>
       <c r="AO3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ3">
         <v>8421809460</v>
       </c>
       <c r="AR3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS3">
         <v>135000</v>
@@ -1337,19 +1332,19 @@
         <v>2</v>
       </c>
       <c r="AU3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AV3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>187</v>
+        <v>172</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -1417,16 +1412,16 @@
         <v>500</v>
       </c>
       <c r="AK4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ4">
         <v>8421809460</v>
       </c>
       <c r="AR4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS4">
         <v>147500</v>
@@ -1435,19 +1430,19 @@
         <v>3</v>
       </c>
       <c r="AU4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AV4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:59">
@@ -1515,16 +1510,16 @@
         <v>550</v>
       </c>
       <c r="AK5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ5">
         <v>8421809460</v>
       </c>
       <c r="AR5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS5">
         <v>161250</v>
@@ -1533,19 +1528,19 @@
         <v>4</v>
       </c>
       <c r="AU5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AV5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:59">
@@ -1631,16 +1626,16 @@
         <v>500</v>
       </c>
       <c r="AK6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ6">
         <v>8421809460</v>
       </c>
       <c r="AR6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS6">
         <v>221250</v>
@@ -1649,19 +1644,19 @@
         <v>5</v>
       </c>
       <c r="AU6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AV6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:59">
@@ -1747,16 +1742,16 @@
         <v>500</v>
       </c>
       <c r="AK7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AO7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ7">
         <v>8421809460</v>
       </c>
       <c r="AR7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS7">
         <v>293250</v>
@@ -1765,19 +1760,19 @@
         <v>6</v>
       </c>
       <c r="AU7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AV7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -1863,16 +1858,16 @@
         <v>550</v>
       </c>
       <c r="AK8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AO8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ8">
         <v>8421809460</v>
       </c>
       <c r="AR8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS8">
         <v>320200</v>
@@ -1881,19 +1876,19 @@
         <v>7</v>
       </c>
       <c r="AU8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AV8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>187</v>
+        <v>177</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:59">
@@ -1961,16 +1956,16 @@
         <v>350</v>
       </c>
       <c r="AK9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ9">
         <v>8421809460</v>
       </c>
       <c r="AR9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS9">
         <v>582700</v>
@@ -1979,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="AU9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AV9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -2056,16 +2051,16 @@
         <v>600</v>
       </c>
       <c r="AK10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ10">
         <v>8421809460</v>
       </c>
       <c r="AR10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS10">
         <v>621100</v>
@@ -2074,19 +2069,19 @@
         <v>9</v>
       </c>
       <c r="AU10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AV10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:59">
@@ -2151,16 +2146,16 @@
         <v>500</v>
       </c>
       <c r="AK11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ11">
         <v>8421809460</v>
       </c>
       <c r="AR11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS11">
         <v>671100</v>
@@ -2169,19 +2164,19 @@
         <v>10</v>
       </c>
       <c r="AU11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AV11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -2246,16 +2241,16 @@
         <v>499.5</v>
       </c>
       <c r="AK12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ12">
         <v>8421809460</v>
       </c>
       <c r="AR12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS12">
         <v>713807.25</v>
@@ -2264,19 +2259,19 @@
         <v>11</v>
       </c>
       <c r="AU12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AV12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:59">
@@ -2335,16 +2330,16 @@
         <v>520.5</v>
       </c>
       <c r="AK13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ13">
         <v>8421809460</v>
       </c>
       <c r="AR13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS13">
         <v>802942.875</v>
@@ -2353,19 +2348,19 @@
         <v>12</v>
       </c>
       <c r="AU13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AV13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY13" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:59">
@@ -2448,16 +2443,16 @@
         <v>450.5</v>
       </c>
       <c r="AK14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AO14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ14">
         <v>8421809460</v>
       </c>
       <c r="AR14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS14">
         <v>836261.855</v>
@@ -2466,19 +2461,19 @@
         <v>13</v>
       </c>
       <c r="AU14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AV14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>45084.47848736369</v>
+      </c>
+      <c r="BB14" t="s">
         <v>185</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:59">
@@ -2555,19 +2550,19 @@
         <v>18</v>
       </c>
       <c r="AK15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AO15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ15">
         <v>8421809460</v>
       </c>
       <c r="AR15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS15">
         <v>879461.855</v>
@@ -2576,19 +2571,19 @@
         <v>14</v>
       </c>
       <c r="AU15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AV15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AY15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:59">
@@ -2634,23 +2629,23 @@
       <c r="AF16" t="s">
         <v>137</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16">
+        <v>123</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>138</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>139</v>
-      </c>
       <c r="AK16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO16" t="s">
         <v>154</v>
       </c>
-      <c r="AO16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>156</v>
+      <c r="AQ16">
+        <v>8421809460</v>
       </c>
       <c r="AS16">
         <v>1061009.855</v>
@@ -2662,13 +2657,13 @@
         <v>137</v>
       </c>
       <c r="AV16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>45084.47848736369</v>
       </c>
       <c r="BB16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
